--- a/주소들.xlsx
+++ b/주소들.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="9915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13560" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>my site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,39 +76,157 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>수정폼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8888/user/editform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8888/user/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8888/user/edit?name=남희석&amp;password=111&amp;gender=male</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://localhost:8888/board/list </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8888/guestbook/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8888/guestbook/rform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8888/board/wform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록폼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8888/board/list2?crtpage=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8889/guestbook/list2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8888/board/list2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8888/board/list3?crtpage=3&amp;kwd=aaa</t>
+  </si>
+  <si>
+    <t>http://localhost:8888/user/idcheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복체크번튼(글자응답용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajaxindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트 데이터 줘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8888/ajaxguestbook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방명록 ajax버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">http://localhost:8888/guestbook/list </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수정폼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8888/user/editform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8888/user/edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8888/user/edit?name=남희석&amp;password=111&amp;gender=male</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">http://localhost:8888/board/list </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8888/guestbook/add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8888/guestbook/rform</t>
+    <t>기존방식으로 한번은 보내줘야 데이터를 받을 수 있다. (~할 때// 자바스크립트가 있는 페이지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8888/api/guestbook/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돔트리가 완료되었을 때..(주소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/guestbooks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8888/api/guestbook/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8888/api/guestbooks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8888/board/write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8888/attach/form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갤러리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8888/attach/result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8888/attach/upload/17525579147547a5c4398-7a43-4a83-85b7-619007db9e9a.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8888/attach/upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8888/gallery</t>
+  </si>
+  <si>
+    <t>파일관련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +258,19 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,11 +298,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,21 +592,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="43.75" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="110.375" customWidth="1"/>
+    <col min="5" max="5" width="78.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -494,7 +632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -502,7 +640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -510,54 +648,178 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D6" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D7" s="1" t="s">
+    <row r="8" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D11" s="1" t="s">
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>19</v>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -565,15 +827,29 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="D9" r:id="rId3"/>
+    <hyperlink ref="D12" r:id="rId3"/>
     <hyperlink ref="D5" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D19" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
-    <hyperlink ref="D11" r:id="rId9"/>
+    <hyperlink ref="D28" r:id="rId7"/>
+    <hyperlink ref="D15" r:id="rId8"/>
+    <hyperlink ref="D16" r:id="rId9"/>
+    <hyperlink ref="D34" r:id="rId10"/>
+    <hyperlink ref="D35" r:id="rId11"/>
+    <hyperlink ref="D29" r:id="rId12"/>
+    <hyperlink ref="D13" r:id="rId13"/>
+    <hyperlink ref="D30" r:id="rId14"/>
+    <hyperlink ref="D8" r:id="rId15"/>
+    <hyperlink ref="D18" r:id="rId16"/>
+    <hyperlink ref="D19" r:id="rId17"/>
+    <hyperlink ref="D20" r:id="rId18"/>
+    <hyperlink ref="D22" r:id="rId19"/>
+    <hyperlink ref="D42" r:id="rId20"/>
+    <hyperlink ref="D43" r:id="rId21"/>
+    <hyperlink ref="D44" r:id="rId22"/>
+    <hyperlink ref="D48" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>